--- a/excelDatos/SponsorData.xlsx
+++ b/excelDatos/SponsorData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\caja_fuerte\programar\universidad\sexto_semestre\proyecto_integrador_I\icesi-filantrop-a-equipo-4\excelDatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F501620-C1BE-497C-8CAB-427C07B85FE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA3C7C1E-371E-4249-B2D5-13C56C6290FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5520" yWindow="4125" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
   <si>
     <t>COLGATE</t>
   </si>
@@ -106,6 +106,51 @@
   </si>
   <si>
     <t>1234567895</t>
+  </si>
+  <si>
+    <t>PEPSI</t>
+  </si>
+  <si>
+    <t>1234567896</t>
+  </si>
+  <si>
+    <t>pepsi@gmail.com</t>
+  </si>
+  <si>
+    <t>SAMSUNG</t>
+  </si>
+  <si>
+    <t>1234567897</t>
+  </si>
+  <si>
+    <t>samsung@hotmail.com</t>
+  </si>
+  <si>
+    <t>CARLOS PEREZ</t>
+  </si>
+  <si>
+    <t>1234567898</t>
+  </si>
+  <si>
+    <t>carlos@yahoo.com</t>
+  </si>
+  <si>
+    <t>1234567899</t>
+  </si>
+  <si>
+    <t>ESTEBAN GUTIERREZ</t>
+  </si>
+  <si>
+    <t>esteban@yahoo.com</t>
+  </si>
+  <si>
+    <t>MICROSOFT</t>
+  </si>
+  <si>
+    <t>1234567800</t>
+  </si>
+  <si>
+    <t>microsoft@outlook.com</t>
   </si>
 </sst>
 </file>
@@ -444,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,6 +624,91 @@
         <v>18</v>
       </c>
     </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{CB872321-3262-4543-BBCA-ACA62F34BB32}"/>
@@ -587,8 +717,13 @@
     <hyperlink ref="D5" r:id="rId4" xr:uid="{5B70615F-49B9-40A0-B526-24AE7F9169CB}"/>
     <hyperlink ref="D6" r:id="rId5" xr:uid="{AE743D56-DF15-4819-835B-C080B2DA08C8}"/>
     <hyperlink ref="D7" r:id="rId6" xr:uid="{9E8DF343-F295-4AE1-B935-C4EEC14FBB03}"/>
+    <hyperlink ref="D8" r:id="rId7" xr:uid="{758F8651-298C-451B-BDA0-40A81B57EF8F}"/>
+    <hyperlink ref="D9" r:id="rId8" xr:uid="{20DC672B-9001-4089-9225-7D248F9F4E6F}"/>
+    <hyperlink ref="D10" r:id="rId9" xr:uid="{62492A87-9B0B-4CA2-B150-D52C43CDD984}"/>
+    <hyperlink ref="D11" r:id="rId10" xr:uid="{DCE665FC-66FE-4F99-AA9A-25E974E076B3}"/>
+    <hyperlink ref="D12" r:id="rId11" xr:uid="{DE98ECC3-1D0D-4D95-A8FB-5C1D6C8AA88C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>